--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,59 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Trading Date</t>
-  </si>
-  <si>
-    <t>Gamma Imblanace</t>
-  </si>
-  <si>
-    <t>Hedge Pressure</t>
-  </si>
-  <si>
-    <t>t-1 to 12:30 return</t>
-  </si>
-  <si>
-    <t>t+1 first 30 return</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,30 +56,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,38 +429,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="17.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trading Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Gamma Imblanace</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hedge Pressure</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>12:30 to close return</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>t+1 first 30 return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,39 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Gamma Imblanace</t>
+  </si>
+  <si>
+    <t>Hedge Pressure</t>
+  </si>
+  <si>
+    <t>12:30 to close return</t>
+  </si>
+  <si>
+    <t>t+1 first 30 return</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,92 +76,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,136 +393,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.29071428571429" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="17.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="16.71928571428571" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col min="1" max="1" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trading Date</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Gamma Imblanace</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hedge Pressure</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>12:30 to close return</t>
-        </is>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>t+1 first 30 return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +47,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -83,8 +89,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -93,7 +99,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,65 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Trading Date</t>
-  </si>
-  <si>
-    <t>Gamma Imblanace</t>
-  </si>
-  <si>
-    <t>Hedge Pressure</t>
-  </si>
-  <si>
-    <t>12:30 to close return</t>
-  </si>
-  <si>
-    <t>t+1 first 30 return</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,36 +62,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,38 +441,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="17.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trading Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Gamma Imblanace</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Hedge Pressure</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>12:30 to close return</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>t+1 first 30 return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00763</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10282%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,45 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Gamma Imblanace</t>
+  </si>
+  <si>
+    <t>Hedge Pressure</t>
+  </si>
+  <si>
+    <t>t-1 to 12:30 return</t>
+  </si>
+  <si>
+    <t>12:30 to close return</t>
+  </si>
+  <si>
+    <t>t+1 first 30 return</t>
+  </si>
+  <si>
+    <t>06/29/23</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>0.10282%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,98 +94,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,70 +414,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.29071428571429" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="17.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="16.71928571428571" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col min="1" max="1" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trading Date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Gamma Imblanace</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Hedge Pressure</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>12:30 to close return</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>t+1 first 30 return</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.0256</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>0.00763</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.10282%</t>
-        </is>
-      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,77 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Trading Date</t>
-  </si>
-  <si>
-    <t>Gamma Imblanace</t>
-  </si>
-  <si>
-    <t>Hedge Pressure</t>
-  </si>
-  <si>
-    <t>t-1 to 12:30 return</t>
-  </si>
-  <si>
-    <t>12:30 to close return</t>
-  </si>
-  <si>
-    <t>t+1 first 30 return</t>
-  </si>
-  <si>
-    <t>06/29/23</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>0.10282%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,39 +62,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,61 +444,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="17.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trading Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Gamma Imblanace</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Hedge Pressure</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>t-1 to 12:30 return</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>12:30 to close return</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>t+1 first 30 return</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>0.0256</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>0.00763</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>0.10282%</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/03/23</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.00192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.00022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001150536381134866</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,45 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Mercy\vscode\SmartMoneyAlgo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5142EE1-9518-4ED7-97BE-91D9FA8DFF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Gamma Imblanace</t>
+  </si>
+  <si>
+    <t>Hedge Pressure</t>
+  </si>
+  <si>
+    <t>06/29/23</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>0.10282%</t>
+  </si>
+  <si>
+    <t>07/03/23</t>
+  </si>
+  <si>
+    <t>t-1 to 12:30 return %</t>
+  </si>
+  <si>
+    <t>12:30 to close return %</t>
+  </si>
+  <si>
+    <t>t+1 first 30 return %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,99 +104,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -206,71 +182,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -298,7 +274,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -321,11 +297,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -334,13 +310,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -350,7 +326,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -359,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -368,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -376,10 +352,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -444,102 +420,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.29071428571429" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="14.86214285714286" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="17.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="16.71928571428571" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trading Date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Gamma Imblanace</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Hedge Pressure</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>t-1 to 12:30 return</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>12:30 to close return</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>t+1 first 30 return</t>
-        </is>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.00763</v>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>0.10282%</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="n"/>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/03/23</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.00192</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.00022</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.001150536381134866</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-1.92E-3</v>
+      </c>
+      <c r="C3">
+        <v>-2.2000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.150536381134866E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,85 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Mercy\vscode\SmartMoneyAlgo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5142EE1-9518-4ED7-97BE-91D9FA8DFF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Trading Date</t>
-  </si>
-  <si>
-    <t>Gamma Imblanace</t>
-  </si>
-  <si>
-    <t>Hedge Pressure</t>
-  </si>
-  <si>
-    <t>06/29/23</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>0.10282%</t>
-  </si>
-  <si>
-    <t>07/03/23</t>
-  </si>
-  <si>
-    <t>t-1 to 12:30 return %</t>
-  </si>
-  <si>
-    <t>12:30 to close return %</t>
-  </si>
-  <si>
-    <t>t+1 first 30 return %</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,34 +65,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,9 +439,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -430,68 +450,91 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trading Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Gamma Imblanace</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Hedge Pressure</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>t-1 to 12:30 return %</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>12:30 to close return %</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>t+1 first 30 return %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/29/23</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.00763</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.10282%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/03/23</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.00192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.00022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001150536381134866</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.6299999999999996E-3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>-1.92E-3</v>
-      </c>
-      <c r="C3">
-        <v>-2.2000000000000001E-4</v>
-      </c>
-      <c r="D3">
-        <v>1.150536381134866E-3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
+      <c r="F3" t="n">
+        <v>0.19642</v>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,45 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Mercy\vscode\SmartMoneyAlgo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2F917-A60A-4F43-B97C-33F6B8AA1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Gamma Imblanace</t>
+  </si>
+  <si>
+    <t>Hedge Pressure</t>
+  </si>
+  <si>
+    <t>t-1 to 12:30 return %</t>
+  </si>
+  <si>
+    <t>12:30 to close return %</t>
+  </si>
+  <si>
+    <t>t+1 first 30 return %</t>
+  </si>
+  <si>
+    <t>06/29/23</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>0.10282%</t>
+  </si>
+  <si>
+    <t>07/03/23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,93 +105,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,102 +420,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trading Date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Gamma Imblanace</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Hedge Pressure</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>t-1 to 12:30 return %</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>12:30 to close return %</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>t+1 first 30 return %</t>
-        </is>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06/29/23</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0.00763</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.10282%</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/03/23</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.00192</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.00022</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.001150536381134866</v>
-      </c>
-      <c r="E3" s="5" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>-1.92E-3</v>
+      </c>
+      <c r="C3">
+        <v>-2.2000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.150536381134866E-3</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.19642</v>
+      <c r="F3">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>

--- a/hpReturnData.xlsx
+++ b/hpReturnData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Mercy\vscode\SmartMoneyAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2F917-A60A-4F43-B97C-33F6B8AA1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E28997-40CB-437C-8EC8-BA60CE134319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,6 +119,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +425,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +498,13 @@
         <v>-0.4</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
